--- a/MedicalDecisionDiabetes/MDDMparameters.xlsx
+++ b/MedicalDecisionDiabetes/MDDMparameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnascime/Dropbox/PythonProjects/ORF411/github_private/seqdecisionlib_Diabetes/MedicalDecisionDiabetes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuexingli/Dropbox/Personal/Teaching/Johns Hokpins/Extra Materials and Books/Stochastic Optimization/MedicalDecisionDiabetes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8596F3-EF90-944E-84B4-4D7C06420598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F01869-CF03-A443-BD98-1A91BD978A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28100" yWindow="460" windowWidth="23040" windowHeight="10160" activeTab="2" xr2:uid="{0DB32CC8-A0F8-4A1F-8469-0451A56A93A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{0DB32CC8-A0F8-4A1F-8469-0451A56A93A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -191,6 +191,194 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior_mult_a and prior_mult_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the "truth_type" is "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior_uniform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mu_fixed,  fixed_uniform_a and fixed_uniform_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the "truth_type" is "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed_uniform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mu_truth and sigma_truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the "truth_type" are "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>known" or "normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mu_0 and sigma_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to set up the initial parameters of the prior. Those columns are used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL types of "truth_type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that you might select in sheet "parameters2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Sheet </t>
     </r>
     <r>
@@ -254,195 +442,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. For example, for question 2, use truth_type="known". For question 3.a, use truth_type="fixed_uniform".  For question 3.b, use truth_type="prior_uniform". </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior_mult_a and prior_mult_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when the "truth_type" is "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior_uniform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mu_fixed,  fixed_uniform_a and fixed_uniform_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when the "truth_type" is "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fixed_uniform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mu_truth and sigma_truth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when the "truth_type" are "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>known" or "normal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mu_0 and sigma_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to set up the initial parameters of the prior. Those columns are used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL types of "truth_type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that you might select in sheet "parameters2"</t>
+      <t xml:space="preserve">. For example, for question 4.16, use truth_type="known". For question 4.17.a, use truth_type="fixed_uniform".  For question 4.17.b, use truth_type="prior_uniform". </t>
     </r>
   </si>
 </sst>
@@ -513,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -659,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC70B3A-BEBA-564B-A9E3-005424252FEF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="2" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36399D37-6991-4440-A8AB-A82CE9D5485E}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
         <v>0.12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>0.19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -1015,7 +1015,7 @@
         <v>0.17</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -1056,7 +1056,7 @@
         <v>0.15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>0.21</v>
       </c>
       <c r="C6">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
         <v>0.24</v>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4453F3F-717F-4132-8180-150D526F4A71}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
